--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H2">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I2">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J2">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.960095666666667</v>
+        <v>0.07463599999999999</v>
       </c>
       <c r="N2">
-        <v>23.880287</v>
+        <v>0.223908</v>
       </c>
       <c r="O2">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="P2">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="Q2">
-        <v>1622.121545859253</v>
+        <v>6.193868559115999</v>
       </c>
       <c r="R2">
-        <v>14599.09391273328</v>
+        <v>55.744817032044</v>
       </c>
       <c r="S2">
-        <v>0.5833169254104004</v>
+        <v>0.02762509065299024</v>
       </c>
       <c r="T2">
-        <v>0.5833169254104005</v>
+        <v>0.02762509065299024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H3">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I3">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J3">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.057798</v>
       </c>
       <c r="O3">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="P3">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="Q3">
-        <v>3.926057551468</v>
+        <v>1.598840662146</v>
       </c>
       <c r="R3">
-        <v>35.334517963212</v>
+        <v>14.389565959314</v>
       </c>
       <c r="S3">
-        <v>0.001411815178555866</v>
+        <v>0.007130942126058606</v>
       </c>
       <c r="T3">
-        <v>0.001411815178555866</v>
+        <v>0.007130942126058606</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.7816646666667</v>
+        <v>82.98768099999999</v>
       </c>
       <c r="H4">
-        <v>611.344994</v>
+        <v>248.963043</v>
       </c>
       <c r="I4">
-        <v>0.6667327591988204</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="J4">
-        <v>0.6667327591988205</v>
+        <v>0.4489504115427952</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>3.357145</v>
       </c>
       <c r="O4">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="P4">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="Q4">
-        <v>228.0415322091256</v>
+        <v>92.86722611024834</v>
       </c>
       <c r="R4">
-        <v>2052.37378988213</v>
+        <v>835.8050349922351</v>
       </c>
       <c r="S4">
-        <v>0.08200401860986421</v>
+        <v>0.4141943787637464</v>
       </c>
       <c r="T4">
-        <v>0.08200401860986423</v>
+        <v>0.4141943787637464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H5">
         <v>189.421768</v>
       </c>
       <c r="I5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J5">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.960095666666667</v>
+        <v>0.07463599999999999</v>
       </c>
       <c r="N5">
-        <v>23.880287</v>
+        <v>0.223908</v>
       </c>
       <c r="O5">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="P5">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="Q5">
-        <v>502.6051315430462</v>
+        <v>4.712561025482666</v>
       </c>
       <c r="R5">
-        <v>4523.446183887416</v>
+        <v>42.413049229344</v>
       </c>
       <c r="S5">
-        <v>0.1807374304197904</v>
+        <v>0.02101835457019894</v>
       </c>
       <c r="T5">
-        <v>0.1807374304197904</v>
+        <v>0.02101835457019895</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H6">
         <v>189.421768</v>
       </c>
       <c r="I6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J6">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.057798</v>
       </c>
       <c r="O6">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="P6">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="Q6">
         <v>1.216466594096</v>
@@ -818,10 +818,10 @@
         <v>10.948199346864</v>
       </c>
       <c r="S6">
-        <v>0.0004374429002215529</v>
+        <v>0.005425526812120865</v>
       </c>
       <c r="T6">
-        <v>0.0004374429002215529</v>
+        <v>0.005425526812120865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>63.14058933333334</v>
+        <v>63.14058933333333</v>
       </c>
       <c r="H7">
         <v>189.421768</v>
       </c>
       <c r="I7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="J7">
-        <v>0.2065833519051582</v>
+        <v>0.3415807409566563</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>3.357145</v>
       </c>
       <c r="O7">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="P7">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="Q7">
         <v>70.65737125915112</v>
       </c>
       <c r="R7">
-        <v>635.91634133236</v>
+        <v>635.9163413323599</v>
       </c>
       <c r="S7">
-        <v>0.02540847858514628</v>
+        <v>0.3151368595743365</v>
       </c>
       <c r="T7">
-        <v>0.02540847858514628</v>
+        <v>0.3151368595743365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>116.159826</v>
       </c>
       <c r="I8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J8">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>7.960095666666667</v>
+        <v>0.07463599999999999</v>
       </c>
       <c r="N8">
-        <v>23.880287</v>
+        <v>0.223908</v>
       </c>
       <c r="O8">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="P8">
-        <v>0.8748886527059857</v>
+        <v>0.06153261015633781</v>
       </c>
       <c r="Q8">
-        <v>308.2144425277846</v>
+        <v>2.889901591112</v>
       </c>
       <c r="R8">
-        <v>2773.929982750062</v>
+        <v>26.009114320008</v>
       </c>
       <c r="S8">
-        <v>0.1108342968757949</v>
+        <v>0.01288916493314862</v>
       </c>
       <c r="T8">
-        <v>0.1108342968757949</v>
+        <v>0.01288916493314863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>116.159826</v>
       </c>
       <c r="I9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J9">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.057798</v>
       </c>
       <c r="O9">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="P9">
-        <v>0.002117512840155588</v>
+        <v>0.01588358523061263</v>
       </c>
       <c r="Q9">
-        <v>0.745978402572</v>
+        <v>0.7459784025720001</v>
       </c>
       <c r="R9">
-        <v>6.713805623148</v>
+        <v>6.713805623148001</v>
       </c>
       <c r="S9">
-        <v>0.0002682547613781692</v>
+        <v>0.003327116292433162</v>
       </c>
       <c r="T9">
-        <v>0.0002682547613781692</v>
+        <v>0.003327116292433162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>116.159826</v>
       </c>
       <c r="I10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="J10">
-        <v>0.1266838888960214</v>
+        <v>0.2094688475005485</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>3.357145</v>
       </c>
       <c r="O10">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="P10">
-        <v>0.1229938344538588</v>
+        <v>0.9225838046130496</v>
       </c>
       <c r="Q10">
-        <v>43.32948656186333</v>
+        <v>43.32948656186334</v>
       </c>
       <c r="R10">
         <v>389.96537905677</v>
       </c>
       <c r="S10">
-        <v>0.0155813372588483</v>
+        <v>0.1932525662749667</v>
       </c>
       <c r="T10">
-        <v>0.0155813372588483</v>
+        <v>0.1932525662749667</v>
       </c>
     </row>
   </sheetData>
